--- a/Data/processed/primera_aplicacion/descriptivos.xlsx
+++ b/Data/processed/primera_aplicacion/descriptivos.xlsx
@@ -611,13 +611,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>877.0</v>
+        <v>882.0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8379893576586849</v>
+        <v>0.8379629629629629</v>
       </c>
       <c r="C18" t="n">
-        <v>0.20253072597818722</v>
+        <v>0.20215055192598214</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
@@ -637,13 +637,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>877.0</v>
+        <v>882.0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.779133409350057</v>
+        <v>0.7794784580498866</v>
       </c>
       <c r="C19" t="n">
-        <v>0.19121141503840358</v>
+        <v>0.19105585140199427</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
@@ -663,13 +663,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>877.0</v>
+        <v>882.0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9007981755986317</v>
+        <v>0.9010770975056689</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21266798699082964</v>
+        <v>0.21222960163667606</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>877.0</v>
+        <v>882.0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8741923223109084</v>
+        <v>0.8749055177626606</v>
       </c>
       <c r="C21" t="n">
-        <v>0.25335720869397205</v>
+        <v>0.25281394751737235</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
@@ -715,13 +715,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>877.0</v>
+        <v>882.0</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22120866590649943</v>
+        <v>0.2213718820861678</v>
       </c>
       <c r="C22" t="n">
-        <v>0.26888811904598114</v>
+        <v>0.26866137246799293</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>877.0</v>
+        <v>882.0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2930444697833523</v>
+        <v>0.2932728647014361</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2873954801718792</v>
+        <v>0.28791192087204664</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
@@ -767,13 +767,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>877.0</v>
+        <v>882.0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.20125427594070697</v>
+        <v>0.20238095238095238</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3191538118048603</v>
+        <v>0.31984140508084047</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>877.0</v>
+        <v>882.0</v>
       </c>
       <c r="B25" t="n">
-        <v>0.31185860889395667</v>
+        <v>0.31179138321995464</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3361015258720145</v>
+        <v>0.3364995907736294</v>
       </c>
       <c r="D25" t="n">
         <v>0.0</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>877.0</v>
+        <v>882.0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8700114025085519</v>
+        <v>0.8707482993197279</v>
       </c>
       <c r="C26" t="n">
-        <v>0.27486256400895825</v>
+        <v>0.2742553764098827</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
@@ -845,13 +845,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>877.0</v>
+        <v>882.0</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8358038768529077</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="C27" t="n">
-        <v>0.30939578446730664</v>
+        <v>0.30876304040044944</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>905.0</v>
+        <v>906.0</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6450966850828729</v>
+        <v>0.6447985651214128</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23753338212079272</v>
+        <v>0.23753530005331736</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>905.0</v>
+        <v>906.0</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6782458563535911</v>
+        <v>0.6777731788079471</v>
       </c>
       <c r="C29" t="n">
-        <v>0.20316391641351902</v>
+        <v>0.20354947988263628</v>
       </c>
       <c r="D29" t="n">
         <v>0.0</v>
